--- a/src/test/resources/data/user_auth_cases.xlsx
+++ b/src/test/resources/data/user_auth_cases.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>path</t>
   </si>
@@ -43,6 +43,9 @@
     <t>expectedStatus</t>
   </si>
   <si>
+    <t>expectedError</t>
+  </si>
+  <si>
     <t>schemaFile</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
   </si>
   <si>
     <t>NONE</t>
+  </si>
+  <si>
+    <t>Unauthorized</t>
   </si>
   <si>
     <t>users_401.json</t>
@@ -1019,22 +1025,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="6.625" customWidth="1"/>
     <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="9.625" customWidth="1"/>
     <col min="4" max="4" width="16.375" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:5">
+    <row r="1" ht="27" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1050,73 +1057,82 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="27" spans="1:5">
+    <row r="2" ht="27" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>200</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:5">
+    <row r="3" ht="27" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2">
         <v>200</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:5">
+    <row r="4" ht="27" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2">
         <v>200</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="1:5">
+    <row r="5" ht="27" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
         <v>401</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
